--- a/files/excel/新零售B端.xlsx
+++ b/files/excel/新零售B端.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\workspace-more\playwright_UI\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB4922B-2C61-41B3-9940-172C67531C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0795F4-1A55-4242-AD7B-77463F4AC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="806" firstSheet="11" activeTab="14" xr2:uid="{479604D9-13E0-8440-886C-E556E1C07E80}"/>
+    <workbookView minimized="1" xWindow="4850" yWindow="1410" windowWidth="14440" windowHeight="7300" tabRatio="806" firstSheet="10" activeTab="13" xr2:uid="{479604D9-13E0-8440-886C-E556E1C07E80}"/>
   </bookViews>
   <sheets>
     <sheet name="元素对象库" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="创建试驾任务和取消任务-调试中" sheetId="16" r:id="rId14"/>
     <sheet name="sheet1-调试中" sheetId="8" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1100,10 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清洗任务管家回电</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待清洗任务填跟进页-清洗结果-有效-用户诉求-管家回电</t>
   </si>
   <si>
@@ -1257,10 +1253,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>看舱任务完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>待清洗任务填跟进页-到店诉求-全息体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1358,10 +1350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清洗任务填跟进</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,10 +1883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成当日个户用户订单，常规品牌发起确认函</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>到店诉求-试乘试驾</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1957,6 +1941,22 @@
   <si>
     <t>创建试驾任务和取消任务-调试中2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗任务填跟进_无效线索</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成当日个户用户订单，常规品牌发起确认函_待调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待接待任务-看舱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管家回电任务填跟进-线索战败</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -2618,7 +2618,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2640,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
@@ -2758,29 +2758,29 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>86</v>
@@ -2791,24 +2791,24 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2860,7 +2860,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2878,57 +2878,57 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="28" customFormat="1">
       <c r="A29" s="27" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2966,112 +2966,112 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
@@ -3082,112 +3082,112 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>29</v>
@@ -3229,10 +3229,10 @@
         <v>277</v>
       </c>
       <c r="D59" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" t="s">
         <v>281</v>
-      </c>
-      <c r="E59" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3243,32 +3243,32 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3364,16 +3364,16 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3444,13 +3444,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3466,46 +3466,46 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>86</v>
@@ -3516,57 +3516,57 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3610,7 +3610,7 @@
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D93" s="7"/>
     </row>
@@ -3746,14 +3746,14 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>29</v>
@@ -3764,27 +3764,27 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3800,29 +3800,29 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>86</v>
@@ -3833,51 +3833,51 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>86</v>
@@ -3910,13 +3910,13 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3943,42 +3943,42 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3989,7 +3989,7 @@
         <v>86</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4000,7 +4000,7 @@
         <v>86</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4016,20 +4016,20 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4045,13 +4045,13 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4067,146 +4067,146 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="30" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="32"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B138" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B139" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B140" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B141" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B142" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B143" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B144" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B145" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B146" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B147" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>86</v>
@@ -4233,7 +4233,7 @@
         <v>86</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4676,7 +4676,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>498</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -4761,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -4827,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4854,7 +4854,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -4871,7 +4871,7 @@
         <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -5014,10 +5014,10 @@
         <v>211</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -5025,7 +5025,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -5033,10 +5033,10 @@
         <v>211</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="3:5">
@@ -5044,7 +5044,7 @@
         <v>115</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="3:5">
@@ -5052,7 +5052,7 @@
         <v>115</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="3:5">
@@ -5060,7 +5060,7 @@
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="3:5">
@@ -5068,10 +5068,10 @@
         <v>211</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="3:5">
@@ -5079,7 +5079,7 @@
         <v>77</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -5087,7 +5087,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="3:5">
@@ -5095,7 +5095,7 @@
         <v>115</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -5103,7 +5103,7 @@
         <v>115</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -5111,7 +5111,7 @@
         <v>115</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -5119,7 +5119,7 @@
         <v>115</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -5127,7 +5127,7 @@
         <v>115</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -5151,7 +5151,7 @@
         <v>115</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="3:5">
@@ -5162,12 +5162,12 @@
         <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1"/>
     </row>
@@ -5179,7 +5179,7 @@
         <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5195,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -5279,7 +5279,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5338,7 +5338,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5367,7 +5367,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -5375,7 +5375,7 @@
         <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -5391,7 +5391,7 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -5399,7 +5399,7 @@
         <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -5407,7 +5407,7 @@
         <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -5418,7 +5418,7 @@
         <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="3:5">
@@ -5426,7 +5426,7 @@
         <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -5437,7 +5437,7 @@
         <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -5445,7 +5445,7 @@
         <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -5453,7 +5453,7 @@
         <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -5461,7 +5461,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="3:5">
@@ -5469,7 +5469,7 @@
         <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -5477,7 +5477,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -5485,7 +5485,7 @@
         <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -5493,7 +5493,7 @@
         <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -5504,12 +5504,12 @@
         <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -5521,7 +5521,7 @@
         <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5537,7 +5537,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -5622,7 +5622,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5635,7 +5635,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -5687,7 +5687,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -5724,7 +5724,7 @@
         <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -5740,7 +5740,7 @@
         <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -5748,7 +5748,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -5756,7 +5756,7 @@
         <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -5767,7 +5767,7 @@
         <v>275</v>
       </c>
       <c r="E23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -5775,7 +5775,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -5786,7 +5786,7 @@
         <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -5794,7 +5794,7 @@
         <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -5802,7 +5802,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -5810,7 +5810,7 @@
         <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -5818,7 +5818,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -5826,7 +5826,7 @@
         <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -5837,7 +5837,7 @@
         <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -5845,7 +5845,7 @@
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -5856,7 +5856,7 @@
         <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -5864,10 +5864,10 @@
         <v>211</v>
       </c>
       <c r="D34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" t="s">
         <v>313</v>
-      </c>
-      <c r="E34" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -5875,7 +5875,7 @@
         <v>115</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -5883,7 +5883,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -5891,7 +5891,7 @@
         <v>115</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="3:5">
@@ -5899,7 +5899,7 @@
         <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="3:5">
@@ -5907,7 +5907,7 @@
         <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="3:5">
@@ -5915,7 +5915,7 @@
         <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="3:5">
@@ -5923,7 +5923,7 @@
         <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="3:5">
@@ -5934,12 +5934,12 @@
         <v>275</v>
       </c>
       <c r="E42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -5951,7 +5951,7 @@
         <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +5972,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="29.84375" customWidth="1"/>
+    <col min="1" max="1" width="40.07421875" customWidth="1"/>
     <col min="2" max="2" width="8.69140625" customWidth="1"/>
     <col min="3" max="3" width="13.765625" customWidth="1"/>
     <col min="4" max="4" width="45.69140625" customWidth="1"/>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -6055,7 +6055,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -6388,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06BEE54-0764-4067-A0D3-F7D24A12878A}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6488,18 +6488,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6507,7 +6507,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -6518,7 +6518,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6534,10 +6534,10 @@
         <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6545,7 +6545,7 @@
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6553,7 +6553,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6561,7 +6561,7 @@
         <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -6569,7 +6569,7 @@
         <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -6577,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -6588,7 +6588,7 @@
         <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -6599,10 +6599,10 @@
         <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -6612,10 +6612,10 @@
         <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -6625,10 +6625,10 @@
         <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -6638,7 +6638,7 @@
         <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -6649,10 +6649,10 @@
         <v>211</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -6662,10 +6662,10 @@
         <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -6675,10 +6675,10 @@
         <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -6688,10 +6688,10 @@
         <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -6701,17 +6701,17 @@
         <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -6757,7 +6757,7 @@
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -6765,10 +6765,10 @@
         <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -6776,7 +6776,7 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="3:7">
@@ -6784,10 +6784,10 @@
         <v>166</v>
       </c>
       <c r="D37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -6795,7 +6795,7 @@
         <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="3:7">
@@ -6803,7 +6803,7 @@
         <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="3:7">
@@ -6811,7 +6811,7 @@
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="3:7">
@@ -6819,7 +6819,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
@@ -6830,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -6841,10 +6841,10 @@
         <v>211</v>
       </c>
       <c r="D43" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -6854,10 +6854,10 @@
         <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -6867,10 +6867,10 @@
         <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
@@ -6880,7 +6880,7 @@
         <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
@@ -6891,10 +6891,10 @@
         <v>211</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -6904,10 +6904,10 @@
         <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -6917,10 +6917,10 @@
         <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -6930,10 +6930,10 @@
         <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -6943,10 +6943,10 @@
         <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -6956,7 +6956,7 @@
         <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
@@ -6967,7 +6967,7 @@
         <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="3:7">
@@ -6975,7 +6975,7 @@
         <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="63" spans="3:7">
       <c r="C63" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D63" s="1"/>
     </row>
@@ -7085,7 +7085,7 @@
         <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEC7B0F-7021-4D0B-95D2-6FADED66C687}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -7290,7 +7290,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -7320,7 +7320,7 @@
         <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="15" customFormat="1">
@@ -7399,7 +7399,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -7511,7 +7511,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="1"/>
@@ -7522,7 +7522,7 @@
         <v>77</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -8042,7 +8042,7 @@
         <v>115</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E94" s="28"/>
     </row>
@@ -8054,7 +8054,7 @@
         <v>106</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8202,10 +8202,10 @@
     </row>
     <row r="2" spans="1:7" ht="31">
       <c r="A2" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>115</v>
@@ -8249,7 +8249,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -8307,7 +8307,7 @@
         <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8315,10 +8315,10 @@
         <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8326,7 +8326,7 @@
         <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8334,7 +8334,7 @@
         <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -8342,7 +8342,7 @@
         <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -8350,7 +8350,7 @@
         <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -8358,7 +8358,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -8369,7 +8369,7 @@
         <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -8380,10 +8380,10 @@
         <v>211</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -8393,10 +8393,10 @@
         <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -8406,10 +8406,10 @@
         <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -8419,7 +8419,7 @@
         <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -8430,10 +8430,10 @@
         <v>211</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -8443,10 +8443,10 @@
         <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -8456,10 +8456,10 @@
         <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -8469,10 +8469,10 @@
         <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -8482,17 +8482,17 @@
         <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -8538,7 +8538,7 @@
         <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -8546,10 +8546,10 @@
         <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="3:7">
@@ -8557,7 +8557,7 @@
         <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -8565,10 +8565,10 @@
         <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="3:7">
@@ -8576,7 +8576,7 @@
         <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="3:7">
@@ -8584,7 +8584,7 @@
         <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="3:7">
@@ -8592,7 +8592,7 @@
         <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="3:7">
@@ -8600,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
@@ -8611,7 +8611,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
@@ -8622,10 +8622,10 @@
         <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -8635,10 +8635,10 @@
         <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
@@ -8648,10 +8648,10 @@
         <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -8661,7 +8661,7 @@
         <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -8672,10 +8672,10 @@
         <v>211</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -8685,10 +8685,10 @@
         <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -8698,10 +8698,10 @@
         <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -8711,10 +8711,10 @@
         <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -8724,10 +8724,10 @@
         <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -8737,7 +8737,7 @@
         <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
@@ -8748,7 +8748,7 @@
         <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="3:7">
@@ -8756,7 +8756,7 @@
         <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D64" s="1"/>
     </row>
@@ -8866,7 +8866,7 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -8963,7 +8963,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -9029,7 +9029,7 @@
         <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9056,7 +9056,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -9073,7 +9073,7 @@
         <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -9113,10 +9113,10 @@
         <v>211</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="3:5">
@@ -9124,7 +9124,7 @@
         <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -9132,10 +9132,10 @@
         <v>211</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" t="s">
         <v>419</v>
-      </c>
-      <c r="E26" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -9143,7 +9143,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="3:5">
@@ -9151,7 +9151,7 @@
         <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -9159,10 +9159,10 @@
         <v>211</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -9170,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -9178,7 +9178,7 @@
         <v>115</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -9186,7 +9186,7 @@
         <v>115</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -9194,7 +9194,7 @@
         <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -9202,7 +9202,7 @@
         <v>115</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -9210,7 +9210,7 @@
         <v>115</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -9218,7 +9218,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -9237,12 +9237,12 @@
         <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -9254,7 +9254,7 @@
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -9269,7 +9269,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -9354,7 +9354,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9413,7 +9413,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9513,7 +9513,7 @@
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -9525,7 +9525,7 @@
         <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -9540,7 +9540,7 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="2" spans="1:7" ht="31">
       <c r="A2" s="33" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -9631,7 +9631,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9697,7 +9697,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9727,7 +9727,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="15" customFormat="1">
@@ -9915,7 +9915,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
@@ -9926,7 +9926,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -9936,7 +9936,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -9976,7 +9976,7 @@
         <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -9986,10 +9986,10 @@
         <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -9999,7 +9999,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -10010,7 +10010,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -10088,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -10310,10 +10310,10 @@
         <v>166</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -10430,7 +10430,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E85" s="7"/>
     </row>
@@ -10439,10 +10439,10 @@
         <v>211</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -10450,7 +10450,7 @@
         <v>115</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E87" s="7"/>
     </row>
@@ -10459,16 +10459,16 @@
         <v>211</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D89" s="7"/>
     </row>
@@ -10489,7 +10489,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="29.84375" customWidth="1"/>
+    <col min="1" max="1" width="44.3828125" customWidth="1"/>
     <col min="2" max="2" width="8.69140625" customWidth="1"/>
     <col min="3" max="3" width="13.765625" customWidth="1"/>
     <col min="4" max="4" width="45.69140625" customWidth="1"/>
@@ -10520,7 +10520,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -10575,7 +10575,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10641,7 +10641,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -10671,7 +10671,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="15" customFormat="1">
@@ -10859,7 +10859,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
@@ -10870,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -10880,7 +10880,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -10920,7 +10920,7 @@
         <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -10930,10 +10930,10 @@
         <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -10943,7 +10943,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -10954,7 +10954,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -11032,7 +11032,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -11254,10 +11254,10 @@
         <v>166</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -11374,7 +11374,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E85" s="7"/>
     </row>
@@ -11383,10 +11383,10 @@
         <v>211</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -11394,7 +11394,7 @@
         <v>115</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E87" s="7"/>
     </row>
@@ -11403,16 +11403,16 @@
         <v>211</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D89" s="7"/>
     </row>
@@ -11464,7 +11464,7 @@
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -11512,10 +11512,10 @@
         <v>211</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11523,10 +11523,10 @@
         <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11534,7 +11534,7 @@
         <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11542,10 +11542,10 @@
         <v>211</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11553,10 +11553,10 @@
         <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -11564,10 +11564,10 @@
         <v>166</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11575,10 +11575,10 @@
         <v>166</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -11586,7 +11586,7 @@
         <v>115</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -11594,10 +11594,10 @@
         <v>211</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -11605,7 +11605,7 @@
         <v>115</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -11613,7 +11613,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -11621,7 +11621,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -11629,10 +11629,10 @@
         <v>211</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -11640,10 +11640,10 @@
         <v>211</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -11651,10 +11651,10 @@
         <v>211</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -11662,7 +11662,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -11682,10 +11682,10 @@
         <v>211</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -11693,15 +11693,15 @@
         <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -11807,7 +11807,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11873,7 +11873,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -11903,7 +11903,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="15" customFormat="1">
@@ -12091,7 +12091,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="1"/>
@@ -12102,7 +12102,7 @@
         <v>77</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -12112,7 +12112,7 @@
         <v>115</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -12152,7 +12152,7 @@
         <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F40" s="1"/>
     </row>
@@ -12162,10 +12162,10 @@
         <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F41" s="1"/>
     </row>
@@ -12175,7 +12175,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12186,7 +12186,7 @@
         <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -12264,7 +12264,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -12484,7 +12484,7 @@
         <v>115</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E72" s="7"/>
     </row>
@@ -12493,10 +12493,10 @@
         <v>211</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -12504,7 +12504,7 @@
         <v>115</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -12513,10 +12513,10 @@
         <v>211</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -12554,10 +12554,10 @@
         <v>211</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -12565,10 +12565,10 @@
         <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E80" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="2:5">
@@ -12576,7 +12576,7 @@
         <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -12584,10 +12584,10 @@
         <v>211</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E82" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -12595,10 +12595,10 @@
         <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="2:5">
@@ -12606,10 +12606,10 @@
         <v>166</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E84" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="2:5">
@@ -12617,10 +12617,10 @@
         <v>166</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E85" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="2:5">
@@ -12628,7 +12628,7 @@
         <v>115</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -12636,10 +12636,10 @@
         <v>211</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="2:5">
@@ -12647,7 +12647,7 @@
         <v>115</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="2:5">
@@ -12655,7 +12655,7 @@
         <v>115</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -12663,7 +12663,7 @@
         <v>115</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="2:5">
@@ -12671,10 +12671,10 @@
         <v>211</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E91" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="2:5">
@@ -12682,10 +12682,10 @@
         <v>211</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="2:5">
@@ -12693,10 +12693,10 @@
         <v>211</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="2:5">
@@ -12704,7 +12704,7 @@
         <v>115</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="2:5">
@@ -12724,10 +12724,10 @@
         <v>211</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="3:5">
@@ -12735,10 +12735,10 @@
         <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E97" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
